--- a/S32K3/S32K3xx_fault_map.xlsx
+++ b/S32K3/S32K3xx_fault_map.xlsx
@@ -1,31 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nxa18217\Desktop\k388\rev6_draftC\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nxp1-my.sharepoint.com/personal/mayank_saini_1_nxp_com/Documents/K388/FCCU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86170AD-3AC1-46FD-9B0C-E0EFD8C01F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{53FFDFDD-7F5D-4F1A-86A2-BF0EB6B12C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5975F45-8A9F-4C62-8BB8-636CC13B62A7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="16" r:id="rId1"/>
-    <sheet name="S32K312" sheetId="17" r:id="rId2"/>
-    <sheet name="S32K342" sheetId="18" r:id="rId3"/>
-    <sheet name="S32K344" sheetId="19" r:id="rId4"/>
-    <sheet name="S32K358" sheetId="20" r:id="rId5"/>
+    <sheet name="S32K310_S32K311_S32K312" sheetId="17" r:id="rId2"/>
+    <sheet name="S32K322_S32K341_S32K342" sheetId="18" r:id="rId3"/>
+    <sheet name="S32K314_S32K324_S32K344" sheetId="19" r:id="rId4"/>
+    <sheet name="S32K328_S32K338_S32K348_S32K358" sheetId="20" r:id="rId5"/>
     <sheet name="S32K388" sheetId="12" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="49">
   <si>
     <t>Description</t>
   </si>
@@ -169,6 +182,9 @@
   </si>
   <si>
     <t>Debug and Test Monitoring, STCU faults</t>
+  </si>
+  <si>
+    <t>Lockup and Lockstep errors</t>
   </si>
 </sst>
 </file>
@@ -232,12 +248,18 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -270,7 +292,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -291,6 +313,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -678,17 +701,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D392FE-CDEF-46D5-A082-E32C420C4EA0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.77734375" style="5"/>
+    <col min="1" max="1" width="58.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.81640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="11" customFormat="1" ht="35.4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" s="11" customFormat="1" ht="35" x14ac:dyDescent="0.7">
       <c r="A1" s="10" t="s">
         <v>45</v>
       </c>
@@ -702,23 +725,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD703864-B2C5-494B-AD39-A5F28814C052}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" style="6" customWidth="1"/>
     <col min="2" max="2" width="48" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="6" customWidth="1"/>
-    <col min="4" max="8" width="11.5546875" style="6" customWidth="1"/>
-    <col min="9" max="10" width="8.5546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="5.109375" style="6" customWidth="1"/>
-    <col min="14" max="1014" width="8.5546875" style="6" customWidth="1"/>
-    <col min="1015" max="16384" width="9.109375" style="6"/>
+    <col min="3" max="3" width="8.54296875" style="6" customWidth="1"/>
+    <col min="4" max="8" width="11.54296875" style="6" customWidth="1"/>
+    <col min="9" max="10" width="8.54296875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="4.90625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="5.54296875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="5.08984375" style="6" customWidth="1"/>
+    <col min="14" max="1014" width="8.54296875" style="6" customWidth="1"/>
+    <col min="1015" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -755,7 +780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -776,7 +801,7 @@
       </c>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -809,7 +834,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -842,7 +867,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -875,7 +900,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -908,7 +933,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
@@ -941,7 +966,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
@@ -974,7 +999,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -1007,7 +1032,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
@@ -1050,15 +1075,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CBD257-888A-4DDD-B514-80B4E1D711EF}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1014" width="8.5546875" style="5" customWidth="1"/>
-    <col min="1015" max="16384" width="8.77734375" style="5"/>
+    <col min="1" max="1014" width="8.54296875" style="5" customWidth="1"/>
+    <col min="1015" max="16384" width="8.81640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1095,7 +1122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1116,15 +1143,15 @@
       </c>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>21</v>
+      <c r="C3" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>14</v>
@@ -1149,7 +1176,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -1182,7 +1209,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -1215,7 +1242,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -1248,7 +1275,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
@@ -1281,7 +1308,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
@@ -1314,7 +1341,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -1347,7 +1374,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
@@ -1390,28 +1417,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885B2109-797E-4E8C-9528-45B9E51AABC9}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="63.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="63.36328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="43.453125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="42.88671875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="42.90625" style="6" customWidth="1"/>
     <col min="9" max="9" width="23" style="6" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="26.5546875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="28.5546875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="19.5546875" style="6" customWidth="1"/>
-    <col min="14" max="1014" width="8.5546875" style="6" customWidth="1"/>
-    <col min="1015" max="16384" width="9.109375" style="6"/>
+    <col min="10" max="10" width="22.08984375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="26.54296875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="28.54296875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="19.54296875" style="6" customWidth="1"/>
+    <col min="14" max="1014" width="8.54296875" style="6" customWidth="1"/>
+    <col min="1015" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1448,7 +1477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1469,15 +1498,15 @@
       </c>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>21</v>
+      <c r="C3" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>14</v>
@@ -1502,7 +1531,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -1535,7 +1564,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -1566,7 +1595,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -1597,7 +1626,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
@@ -1628,7 +1657,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
@@ -1659,7 +1688,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -1690,7 +1719,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
@@ -1731,19 +1760,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AD7A02-82EE-4701-99D5-97129D6A3276}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="9" width="8.88671875" style="15"/>
-    <col min="10" max="10" width="22.5546875" style="15" customWidth="1"/>
+    <col min="1" max="9" width="8.90625" style="15"/>
+    <col min="10" max="10" width="22.54296875" style="15" customWidth="1"/>
     <col min="11" max="11" width="11" style="15" customWidth="1"/>
     <col min="12" max="12" width="30" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="15" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="15"/>
+    <col min="13" max="13" width="19.453125" style="15" customWidth="1"/>
+    <col min="14" max="16384" width="8.90625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1780,7 +1811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -1801,15 +1832,15 @@
       </c>
       <c r="M2" s="14"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>21</v>
+      <c r="C3" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>14</v>
@@ -1834,7 +1865,7 @@
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>18</v>
       </c>
@@ -1867,7 +1898,7 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>
@@ -1898,7 +1929,7 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
@@ -1929,7 +1960,7 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
@@ -1960,7 +1991,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
@@ -1991,7 +2022,7 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>24</v>
       </c>
@@ -2022,7 +2053,7 @@
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>26</v>
       </c>
@@ -2062,15 +2093,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6808C70A-2998-4B8A-9B37-A198316BD06D}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="13" max="13" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2107,7 +2140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -2128,15 +2161,15 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
+      <c r="C3" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -2161,7 +2194,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2194,7 +2227,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -2225,7 +2258,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2256,7 +2289,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2287,7 +2320,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2318,7 +2351,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -2349,7 +2382,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
